--- a/future_3/test_cases/futurecase.xlsx
+++ b/future_3/test_cases/futurecase.xlsx
@@ -1386,7 +1386,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>13321345696</v>
+        <v>13321345697</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>15</v>
